--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4423579.039162084</v>
+        <v>4416562.024270374</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>265.1806127579635</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,10 +715,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>68.90297685032048</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>134.6751203255734</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>155.3197306044668</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -840,7 +840,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39.28399007890604</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>284.5615160058696</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>87.79723570473726</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>28.44734925172039</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>5.983388191319379</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>123.5287822845475</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>146.2506239775118</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>36.59669811656391</v>
       </c>
     </row>
     <row r="14">
@@ -1612,10 +1612,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>107.7035956751377</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1897,13 +1897,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>157.2425576766694</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>12.81263415054008</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,10 +2298,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>114.4760112588801</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,7 +2730,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>130.8636020495568</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>47.82370529318959</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>203.3807067317122</v>
+        <v>136.9575509524583</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>27.78541561721894</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>95.02525064967651</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1791.109440255352</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1304.217875522719</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1304.217875522719</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>893.2319707331117</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>475.2681626312985</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2177.709280319473</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2177.709280319473</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2177.709280319473</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2177.709280319473</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,13 +4418,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2667.732171871844</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C4" t="n">
-        <v>2667.732171871844</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D4" t="n">
-        <v>2667.732171871844</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E4" t="n">
-        <v>2667.732171871844</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="F4" t="n">
-        <v>2531.696696795508</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="G4" t="n">
-        <v>2362.69689653384</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>2204.94852396637</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>2667.732171871844</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>2667.732171871844</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>2667.732171871844</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>2667.732171871844</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V4" t="n">
-        <v>2667.732171871844</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W4" t="n">
-        <v>2667.732171871844</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X4" t="n">
-        <v>2667.732171871844</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y4" t="n">
-        <v>2667.732171871844</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857191</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.680947310029</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117851</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916692</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2035.589960916692</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>2035.589960916692</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="6">
@@ -4637,40 +4637,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>507.3364050629043</v>
       </c>
       <c r="C7" t="n">
-        <v>546.4805193761945</v>
+        <v>338.4002221349974</v>
       </c>
       <c r="D7" t="n">
-        <v>546.4805193761945</v>
+        <v>188.2835827226617</v>
       </c>
       <c r="E7" t="n">
-        <v>398.5674257938014</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>251.677478295891</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>82.67767803422342</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1791.109440255352</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2517.343853786546</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2517.343853786546</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2517.343853786546</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2517.343853786546</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2164.575198516432</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1791.109440255352</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1791.109440255352</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5001,13 +5001,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,22 +5020,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5044,22 +5044,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5071,19 +5071,19 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,19 +5120,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>261.8048459311032</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>410.874530133163</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1024.771599890052</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.8811773957805</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>244.9449944678736</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>244.9449944678736</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.9449944678736</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>244.9449944678736</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1044.311772267568</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W13" t="n">
-        <v>1044.311772267568</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X13" t="n">
-        <v>816.3222213695503</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y13" t="n">
-        <v>595.5296422260202</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="14">
@@ -5266,10 +5266,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>565.9270610048577</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C16" t="n">
-        <v>565.9270610048577</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>964.1357418247858</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>674.7185717878251</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>565.9270610048577</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>565.9270610048577</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5612,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1340.085404217832</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1050.956765431391</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>796.2722772255036</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>506.8551071885429</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,19 +5734,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,7 +5755,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>576.3642008327093</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>576.3642008327093</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>426.2475614203736</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>278.3344678379805</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>278.3344678379805</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>110.1591461578011</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1591461578011</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609664</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>986.0022165609664</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>758.0126656629491</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>758.0126656629491</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6068,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1383.283935952973</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1128.599447747086</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>839.1822777101255</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>611.1927268121082</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>390.400147668578</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6223,13 +6223,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,13 +6247,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4054.319213292873</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C28" t="n">
-        <v>4054.319213292873</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D28" t="n">
-        <v>4054.319213292873</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>3906.40611971048</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>3759.51617221257</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>3591.340850532391</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014293</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>4571.725934227851</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V28" t="n">
-        <v>4571.725934227851</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W28" t="n">
-        <v>4282.308764190891</v>
+        <v>861.0644906799231</v>
       </c>
       <c r="X28" t="n">
-        <v>4054.319213292873</v>
+        <v>633.0749397819058</v>
       </c>
       <c r="Y28" t="n">
-        <v>4054.319213292873</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6484,25 +6484,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.1532743881928</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1293.481213253143</v>
+        <v>1360.575309999864</v>
       </c>
       <c r="U31" t="n">
-        <v>1004.352574466701</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V31" t="n">
-        <v>1004.352574466701</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W31" t="n">
-        <v>714.9354044297403</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X31" t="n">
-        <v>486.9458535317229</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y31" t="n">
-        <v>266.1532743881928</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,19 +6712,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1270.930184092425</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.930184092425</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1270.930184092425</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>1270.930184092425</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>1042.940633194408</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6964,16 +6964,16 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324574</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954967</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7171,13 +7171,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,28 +7198,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,16 +7241,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7830,22 +7830,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747075</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>124.340078086323</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>96.03744927814711</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>20.24294448586576</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>181.9879552355309</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>118.0060597138994</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>64.30500338171987</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>97.60661131373192</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>171.7613411396973</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05022631797931</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>238.6992930434014</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>18.16685432667708</v>
+        <v>84.59001010593099</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>193.7621454411703</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>133.895351296769</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642828</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.769864283</v>
-      </c>
-      <c r="C2" t="n">
-        <v>821041.7698642829</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="F2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="G2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="H2" t="n">
+        <v>782058.119475418</v>
+      </c>
+      <c r="I2" t="n">
         <v>782058.1194754178</v>
-      </c>
-      <c r="F2" t="n">
-        <v>782058.1194754175</v>
-      </c>
-      <c r="G2" t="n">
-        <v>782058.1194754174</v>
-      </c>
-      <c r="H2" t="n">
-        <v>782058.1194754175</v>
-      </c>
-      <c r="I2" t="n">
-        <v>782058.1194754174</v>
       </c>
       <c r="J2" t="n">
         <v>782058.1194754177</v>
@@ -26343,19 +26343,19 @@
         <v>782058.1194754177</v>
       </c>
       <c r="L2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="M2" t="n">
-        <v>782058.1194754174</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="N2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="O2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
-      <c r="C4" t="n">
-        <v>147917.0487159209</v>
-      </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007535</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007508</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007492</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="J4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>297.763870408322</v>
+        <v>297.7638704079436</v>
       </c>
       <c r="C6" t="n">
-        <v>590265.6430849526</v>
+        <v>590265.6430849527</v>
       </c>
       <c r="D6" t="n">
         <v>590265.643084953</v>
       </c>
       <c r="E6" t="n">
-        <v>156994.0253937975</v>
+        <v>156019.4341340757</v>
       </c>
       <c r="F6" t="n">
-        <v>682154.0618706935</v>
+        <v>681179.4706109719</v>
       </c>
       <c r="G6" t="n">
-        <v>682154.0618706933</v>
+        <v>681179.4706109718</v>
       </c>
       <c r="H6" t="n">
-        <v>682154.0618706936</v>
+        <v>681179.4706109723</v>
       </c>
       <c r="I6" t="n">
-        <v>682154.0618706933</v>
+        <v>681179.470610972</v>
       </c>
       <c r="J6" t="n">
-        <v>505730.8426781005</v>
+        <v>504756.251418379</v>
       </c>
       <c r="K6" t="n">
-        <v>682154.0618706936</v>
+        <v>681179.4706109719</v>
       </c>
       <c r="L6" t="n">
-        <v>682154.0618706937</v>
+        <v>681179.4706109718</v>
       </c>
       <c r="M6" t="n">
-        <v>547353.0466368562</v>
+        <v>546378.4553771347</v>
       </c>
       <c r="N6" t="n">
-        <v>682154.0618706937</v>
+        <v>681179.4706109719</v>
       </c>
       <c r="O6" t="n">
-        <v>682154.0618706936</v>
+        <v>681179.4706109718</v>
       </c>
       <c r="P6" t="n">
-        <v>682154.0618706937</v>
+        <v>681179.4706109719</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26749,37 +26749,37 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>58.74216000639365</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>258.8492816198144</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>10.74592769735787</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>11.99007165458411</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>343.4498515845745</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>58.63672694183191</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>127.7235395900748</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>375.9469818809424</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>50.886930524424</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>165.3051017946059</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28332,10 +28332,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28386,16 +28386,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,16 +34786,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>166.2502570412296</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>406.4618263286133</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4416562.024270374</v>
+        <v>4421501.287119405</v>
       </c>
     </row>
     <row r="7">
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>47.82370529318959</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="29">
@@ -5123,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.055751909234</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>909.3712637033469</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>861.0644906799231</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>633.0749397819058</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -8771,22 +8771,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>306.1147370139962</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>238.6992930434014</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="29">
@@ -26426,7 +26426,7 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007483</v>
@@ -26530,40 +26530,40 @@
         <v>590265.643084953</v>
       </c>
       <c r="E6" t="n">
-        <v>156019.4341340757</v>
+        <v>156896.5662678251</v>
       </c>
       <c r="F6" t="n">
-        <v>681179.4706109719</v>
+        <v>682056.6027447215</v>
       </c>
       <c r="G6" t="n">
-        <v>681179.4706109718</v>
+        <v>682056.6027447213</v>
       </c>
       <c r="H6" t="n">
-        <v>681179.4706109723</v>
+        <v>682056.6027447218</v>
       </c>
       <c r="I6" t="n">
-        <v>681179.470610972</v>
+        <v>682056.6027447216</v>
       </c>
       <c r="J6" t="n">
-        <v>504756.251418379</v>
+        <v>505633.3835521285</v>
       </c>
       <c r="K6" t="n">
-        <v>681179.4706109719</v>
+        <v>682056.6027447215</v>
       </c>
       <c r="L6" t="n">
-        <v>681179.4706109718</v>
+        <v>682056.6027447213</v>
       </c>
       <c r="M6" t="n">
-        <v>546378.4553771347</v>
+        <v>547255.5875108843</v>
       </c>
       <c r="N6" t="n">
-        <v>681179.4706109719</v>
+        <v>682056.6027447215</v>
       </c>
       <c r="O6" t="n">
-        <v>681179.4706109718</v>
+        <v>682056.6027447213</v>
       </c>
       <c r="P6" t="n">
-        <v>681179.4706109719</v>
+        <v>682056.6027447215</v>
       </c>
     </row>
   </sheetData>
@@ -35491,22 +35491,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>639.309310412009</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
